--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -139,9 +139,6 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Банницин</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -548,7 +548,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,10 +556,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -571,13 +571,13 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>5</v>
@@ -2069,7 +2069,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2114,7 +2114,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2159,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="6">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="41" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="42" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="43" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -43,9 +43,6 @@
     <t xml:space="preserve">Алтынов </t>
   </si>
   <si>
-    <t xml:space="preserve"> Альсайед </t>
-  </si>
-  <si>
     <t>Асадуллин</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Елеиссави</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ирканаев </t>
-  </si>
-  <si>
     <t>Исмаел</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв. м</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -167,6 +158,15 @@
   </si>
   <si>
     <t>Банницин</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв. м.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Альсайед </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ирканаев </t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -556,10 +556,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
@@ -571,13 +571,13 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>5</v>
@@ -674,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -854,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -899,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -944,7 +944,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -989,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1079,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1124,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1214,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1259,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1304,7 +1304,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1349,7 +1349,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1394,7 +1394,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1484,7 +1484,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1529,7 +1529,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1619,7 +1619,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1664,7 +1664,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1754,7 +1754,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1799,7 +1799,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1844,7 +1844,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1889,7 +1889,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1934,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1979,7 +1979,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -2024,7 +2024,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2069,7 +2069,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2114,7 +2114,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2159,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C40" s="6">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="41" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="42" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="43" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -31,9 +31,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t xml:space="preserve">Адельвахаб </t>
   </si>
   <si>
@@ -166,7 +163,10 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальная сумма , руб.</t>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -174,7 +174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ _₽"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -228,7 +228,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -554,18 +554,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -577,13 +577,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -680,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="6"/>
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -815,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -860,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -995,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1040,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1085,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1130,7 +1130,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1175,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1220,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1265,7 +1265,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1310,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1355,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1400,7 +1400,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1445,7 +1445,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1490,7 +1490,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1535,7 +1535,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1580,7 +1580,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1625,7 +1625,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1670,7 +1670,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1715,7 +1715,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1760,7 +1760,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1805,7 +1805,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1850,7 +1850,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1895,7 +1895,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1940,7 +1940,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1985,7 +1985,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -2030,7 +2030,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2075,7 +2075,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2120,7 +2120,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2165,7 +2165,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="7">
         <f>SUM(K3:K38)</f>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="41" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="42" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -31,12 +31,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t xml:space="preserve">Адельвахаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алтынов </t>
-  </si>
-  <si>
     <t>Асадуллин</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>Галимов</t>
   </si>
   <si>
-    <t xml:space="preserve">Гиниатулин </t>
-  </si>
-  <si>
     <t>Гюрбюз</t>
   </si>
   <si>
@@ -151,12 +142,6 @@
     <t>Банницин</t>
   </si>
   <si>
-    <t xml:space="preserve">Альсайед </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ирканаев </t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -167,15 +152,27 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Адельвахаб</t>
+  </si>
+  <si>
+    <t>Алтынов</t>
+  </si>
+  <si>
+    <t>Альсайед</t>
+  </si>
+  <si>
+    <t>Гиниатулин</t>
+  </si>
+  <si>
+    <t>Ирканаев</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ _₽"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,7 +225,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -559,13 +556,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -577,13 +574,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
@@ -594,13 +591,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>IF(ROUNDUP(A3/4,0) = 9,1.1*$A$1/2,1.1*$A$1)</f>
+        <f>$A$1*1.1</f>
         <v>45.1</v>
       </c>
       <c r="E3" s="1">
@@ -614,14 +611,14 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(F3&gt;G3,0,G3-F3)</f>
+        <f>IF(F3&lt;=G3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -635,18 +632,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">IF(ROUNDUP(A4/4,0) = 9,1.1*$A$1/2,1.1*$A$1)</f>
+        <f>$A$1*1.1</f>
         <v>45.1</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>3134.4500000000003</v>
       </c>
       <c r="F4" s="4">
@@ -658,7 +655,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(F4&gt;G4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(F4&lt;=G4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -666,32 +663,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>3134.4500000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="6">$A$1*1.1</f>
         <v>45.1</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3111.9</v>
       </c>
       <c r="F5" s="4">
@@ -703,7 +700,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -711,32 +708,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3111.9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3089.35</v>
       </c>
       <c r="F6" s="4">
@@ -748,7 +745,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -756,32 +753,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3089.35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3066.8</v>
       </c>
       <c r="F7" s="4">
@@ -793,7 +790,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -801,32 +798,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3066.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3044.25</v>
       </c>
       <c r="F8" s="4">
@@ -838,7 +835,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -846,32 +843,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3044.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3021.7000000000003</v>
       </c>
       <c r="F9" s="4">
@@ -883,7 +880,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -891,32 +888,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3021.7000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2999.15</v>
       </c>
       <c r="F10" s="4">
@@ -928,7 +925,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -936,32 +933,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2999.15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2976.6</v>
       </c>
       <c r="F11" s="4">
@@ -973,7 +970,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -981,32 +978,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2976.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2954.05</v>
       </c>
       <c r="F12" s="4">
@@ -1018,7 +1015,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1026,32 +1023,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2964.05</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2931.5</v>
       </c>
       <c r="F13" s="4">
@@ -1063,7 +1060,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1071,32 +1068,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2951.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2908.9500000000003</v>
       </c>
       <c r="F14" s="4">
@@ -1108,7 +1105,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1116,32 +1113,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2938.9500000000003</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2886.4</v>
       </c>
       <c r="F15" s="4">
@@ -1153,7 +1150,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1161,32 +1158,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2926.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2863.85</v>
       </c>
       <c r="F16" s="4">
@@ -1198,7 +1195,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1206,32 +1203,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2913.85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2841.3</v>
       </c>
       <c r="F17" s="4">
@@ -1243,7 +1240,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1251,32 +1248,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2901.3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2818.75</v>
       </c>
       <c r="F18" s="4">
@@ -1288,7 +1285,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1296,32 +1293,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2888.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2796.2000000000003</v>
       </c>
       <c r="F19" s="4">
@@ -1333,7 +1330,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1341,32 +1338,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2876.2000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2773.65</v>
       </c>
       <c r="F20" s="4">
@@ -1378,7 +1375,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1386,32 +1383,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2863.65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2751.1</v>
       </c>
       <c r="F21" s="4">
@@ -1423,7 +1420,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1431,32 +1428,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2851.1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2728.55</v>
       </c>
       <c r="F22" s="4">
@@ -1468,7 +1465,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1476,32 +1473,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2838.55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2706</v>
       </c>
       <c r="F23" s="4">
@@ -1513,7 +1510,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1521,32 +1518,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2826</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2683.4500000000003</v>
       </c>
       <c r="F24" s="4">
@@ -1558,7 +1555,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1566,32 +1563,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2813.4500000000003</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2660.9</v>
       </c>
       <c r="F25" s="4">
@@ -1603,7 +1600,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1611,32 +1608,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2800.9</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2638.35</v>
       </c>
       <c r="F26" s="4">
@@ -1648,7 +1645,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1656,32 +1653,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2788.35</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2615.8000000000002</v>
       </c>
       <c r="F27" s="4">
@@ -1693,7 +1690,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1701,32 +1698,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2775.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2593.25</v>
       </c>
       <c r="F28" s="4">
@@ -1738,7 +1735,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1746,32 +1743,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2763.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2570.7000000000003</v>
       </c>
       <c r="F29" s="4">
@@ -1783,7 +1780,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1791,32 +1788,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2750.7000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2548.15</v>
       </c>
       <c r="F30" s="4">
@@ -1828,7 +1825,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1836,32 +1833,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2738.15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2525.6</v>
       </c>
       <c r="F31" s="4">
@@ -1873,7 +1870,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1881,32 +1878,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2725.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2503.0500000000002</v>
       </c>
       <c r="F32" s="4">
@@ -1918,7 +1915,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1926,32 +1923,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2713.05</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2480.5</v>
       </c>
       <c r="F33" s="4">
@@ -1963,7 +1960,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1971,32 +1968,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2700.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>45.1</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2457.9500000000003</v>
       </c>
       <c r="F34" s="4">
@@ -2008,7 +2005,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2016,32 +2013,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2687.9500000000003</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
+        <f>$A$1*1.1/2</f>
         <v>22.55</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1217.7</v>
       </c>
       <c r="F35" s="4">
@@ -2053,7 +2050,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2061,32 +2058,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1457.7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>22.55</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1206.425</v>
       </c>
       <c r="F36" s="4">
@@ -2098,7 +2095,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2106,32 +2103,32 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1456.425</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>22.55</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1195.1500000000001</v>
       </c>
       <c r="F37" s="4">
@@ -2143,7 +2140,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2151,32 +2148,32 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1455.15</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>22.55</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1183.875</v>
       </c>
       <c r="F38" s="4">
@@ -2188,7 +2185,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2196,26 +2193,26 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1453.875</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40" s="7">
-        <f>SUM(K3:K38)</f>
-        <v>98422.349999999991</v>
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <v>98422</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2224,7 +2221,7 @@
     </row>
     <row r="42" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2233,7 +2230,7 @@
     </row>
     <row r="43" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -611,7 +611,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(F3&lt;=G3,G3-F3,0)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -655,7 +655,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(F4&lt;=G4,G4-F4,0)</f>
+        <f>IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -663,28 +663,28 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
         <v>3134.4500000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="6">$A$1*1.1</f>
+        <f t="shared" ref="D5:D34" si="5">$A$1*1.1</f>
         <v>45.1</v>
       </c>
       <c r="E5" s="1">
@@ -692,15 +692,15 @@
         <v>3111.9</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="7">F4</f>
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H5:H38" si="8">IF(G5&lt;=F5,0,G5-F5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -708,28 +708,28 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3111.9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E6" s="1">
@@ -737,15 +737,15 @@
         <v>3089.35</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -753,28 +753,28 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3089.35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E7" s="1">
@@ -782,15 +782,15 @@
         <v>3066.8</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3066.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E8" s="1">
@@ -827,15 +827,15 @@
         <v>3044.25</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -843,28 +843,28 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3044.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E9" s="1">
@@ -872,15 +872,15 @@
         <v>3021.7000000000003</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -888,28 +888,28 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3021.7000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E10" s="1">
@@ -917,15 +917,15 @@
         <v>2999.15</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -933,28 +933,28 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2999.15</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E11" s="1">
@@ -962,15 +962,15 @@
         <v>2976.6</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -978,28 +978,28 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2976.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E12" s="1">
@@ -1007,15 +1007,15 @@
         <v>2954.05</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1023,28 +1023,28 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2964.05</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E13" s="1">
@@ -1052,15 +1052,15 @@
         <v>2931.5</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1068,28 +1068,28 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2951.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E14" s="1">
@@ -1097,15 +1097,15 @@
         <v>2908.9500000000003</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1113,28 +1113,28 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2938.9500000000003</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E15" s="1">
@@ -1142,15 +1142,15 @@
         <v>2886.4</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1158,28 +1158,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2926.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E16" s="1">
@@ -1187,15 +1187,15 @@
         <v>2863.85</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1203,28 +1203,28 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2913.85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E17" s="1">
@@ -1232,15 +1232,15 @@
         <v>2841.3</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1248,28 +1248,28 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2901.3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E18" s="1">
@@ -1277,15 +1277,15 @@
         <v>2818.75</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1293,28 +1293,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2888.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E19" s="1">
@@ -1322,15 +1322,15 @@
         <v>2796.2000000000003</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1338,28 +1338,28 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2876.2000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E20" s="1">
@@ -1367,15 +1367,15 @@
         <v>2773.65</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1383,28 +1383,28 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2863.65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E21" s="1">
@@ -1412,15 +1412,15 @@
         <v>2751.1</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1428,28 +1428,28 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2851.1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E22" s="1">
@@ -1457,15 +1457,15 @@
         <v>2728.55</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1473,28 +1473,28 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2838.55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E23" s="1">
@@ -1502,15 +1502,15 @@
         <v>2706</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1518,28 +1518,28 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2826</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E24" s="1">
@@ -1547,15 +1547,15 @@
         <v>2683.4500000000003</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1563,28 +1563,28 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2813.4500000000003</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E25" s="1">
@@ -1592,15 +1592,15 @@
         <v>2660.9</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2800.9</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E26" s="1">
@@ -1637,15 +1637,15 @@
         <v>2638.35</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1653,28 +1653,28 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2788.35</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E27" s="1">
@@ -1682,15 +1682,15 @@
         <v>2615.8000000000002</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1698,28 +1698,28 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2775.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E28" s="1">
@@ -1727,15 +1727,15 @@
         <v>2593.25</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1743,28 +1743,28 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2763.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E29" s="1">
@@ -1772,15 +1772,15 @@
         <v>2570.7000000000003</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1788,28 +1788,28 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2750.7000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E30" s="1">
@@ -1817,15 +1817,15 @@
         <v>2548.15</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2738.15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E31" s="1">
@@ -1862,15 +1862,15 @@
         <v>2525.6</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1878,28 +1878,28 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2725.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E32" s="1">
@@ -1907,15 +1907,15 @@
         <v>2503.0500000000002</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1923,28 +1923,28 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2713.05</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E33" s="1">
@@ -1952,15 +1952,15 @@
         <v>2480.5</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1968,28 +1968,28 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2700.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45.1</v>
       </c>
       <c r="E34" s="1">
@@ -1997,15 +1997,15 @@
         <v>2457.9500000000003</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2013,24 +2013,24 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2687.9500000000003</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -2042,15 +2042,15 @@
         <v>1217.7</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2058,24 +2058,24 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1457.7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
@@ -2087,15 +2087,15 @@
         <v>1206.425</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2103,24 +2103,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1456.425</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2132,15 +2132,15 @@
         <v>1195.1500000000001</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2148,24 +2148,24 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1455.15</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2177,15 +2177,15 @@
         <v>1183.875</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2193,11 +2193,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1453.875</v>
       </c>
     </row>

--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2206,7 +2206,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="7">
-        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>98422</v>
       </c>
     </row>

--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2206,7 +2206,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="7">
-        <f>FLOOR(SUM(K3:K38),1)</f>
+        <f>INT(SUM(K3:K38))</f>
         <v>98422</v>
       </c>
     </row>

--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2206,7 +2206,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="7">
-        <f>INT(SUM(K3:K38))</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>98422</v>
       </c>
     </row>

--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2206,7 +2206,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="7">
-        <f>FLOOR(SUM(K3:K38),1)</f>
+        <f>FLOOR(SUM(K3:K38),2)</f>
         <v>98422</v>
       </c>
     </row>

--- a/LR3/table_1_41.xlsx
+++ b/LR3/table_1_41.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2206,7 +2206,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="7">
-        <f>FLOOR(SUM(K3:K38),2)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>98422</v>
       </c>
     </row>
